--- a/2021级/2021级放化二班.xlsx
+++ b/2021级/2021级放化二班.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13005" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="13005"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -256,10 +255,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -296,8 +295,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -306,16 +334,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -328,84 +349,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -426,6 +379,52 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -442,25 +441,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,157 +597,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,10 +650,60 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -698,209 +747,156 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -914,6 +910,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1260,169 +1259,169 @@
   </sheetPr>
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5:Q26"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.91851851851852" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.58518518518519" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.74814814814815" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.3333333333333" style="2" customWidth="1"/>
-    <col min="4" max="4" width="7.33333333333333" style="2" customWidth="1"/>
-    <col min="5" max="7" width="11.3333333333333" style="2" customWidth="1"/>
-    <col min="8" max="8" width="7.33333333333333" style="2" customWidth="1"/>
-    <col min="9" max="11" width="11.3333333333333" style="2" customWidth="1"/>
-    <col min="12" max="12" width="7.33333333333333" style="2" customWidth="1"/>
-    <col min="13" max="15" width="11.3333333333333" style="2" customWidth="1"/>
-    <col min="16" max="16" width="7.33333333333333" style="2" customWidth="1"/>
-    <col min="17" max="17" width="9.33333333333333" style="2" customWidth="1"/>
-    <col min="18" max="18" width="9" style="2" customWidth="1"/>
-    <col min="19" max="16384" width="8.91851851851852" style="2"/>
+    <col min="1" max="1" width="5.58518518518519" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.74814814814815" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.3333333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33333333333333" style="1" customWidth="1"/>
+    <col min="5" max="7" width="11.3333333333333" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.33333333333333" style="1" customWidth="1"/>
+    <col min="9" max="11" width="11.3333333333333" style="1" customWidth="1"/>
+    <col min="12" max="12" width="7.33333333333333" style="1" customWidth="1"/>
+    <col min="13" max="15" width="11.3333333333333" style="1" customWidth="1"/>
+    <col min="16" max="16" width="7.33333333333333" style="1" customWidth="1"/>
+    <col min="17" max="17" width="9.33333333333333" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.91851851851852" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="39" customHeight="1" spans="1:18">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="4" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5" t="s">
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5" t="s">
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="5"/>
+      <c r="R3" s="4"/>
     </row>
     <row r="4" ht="45" spans="1:18">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="4" t="s">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="P4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="6">
         <v>30</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="8">
@@ -1431,19 +1430,19 @@
       <c r="G5" s="9">
         <v>12.8</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="4">
         <v>30</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="5">
-        <v>0</v>
-      </c>
-      <c r="K5" s="6" t="s">
+      <c r="J5" s="4">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="4">
         <v>14</v>
       </c>
       <c r="M5" s="8">
@@ -1455,28 +1454,28 @@
       <c r="O5" s="8">
         <v>0</v>
       </c>
-      <c r="P5" s="1">
+      <c r="P5" s="6">
         <v>14</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="6">
         <v>88</v>
       </c>
       <c r="R5" s="12"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>2</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="6">
         <v>24</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F6" s="8">
@@ -1485,19 +1484,19 @@
       <c r="G6" s="9">
         <v>4</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="4">
         <v>24</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="5">
-        <v>0</v>
-      </c>
-      <c r="K6" s="6" t="s">
+      <c r="J6" s="4">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="4">
         <v>14</v>
       </c>
       <c r="M6" s="8">
@@ -1509,28 +1508,28 @@
       <c r="O6" s="8">
         <v>0</v>
       </c>
-      <c r="P6" s="1">
+      <c r="P6" s="6">
         <v>14</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6" s="6">
         <v>76</v>
       </c>
       <c r="R6" s="13"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>3</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="6">
         <v>28</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F7" s="8">
@@ -1539,19 +1538,19 @@
       <c r="G7" s="9">
         <v>33.1</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="4">
         <v>30</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="I7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="5">
-        <v>0</v>
-      </c>
-      <c r="K7" s="6" t="s">
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="4">
         <v>18</v>
       </c>
       <c r="M7" s="8">
@@ -1563,25 +1562,25 @@
       <c r="O7" s="8">
         <v>1.9</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P7" s="6">
         <v>14</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7" s="6">
         <v>90</v>
       </c>
       <c r="R7" s="13"/>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>4</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="6">
         <v>26</v>
       </c>
       <c r="E8" s="10">
@@ -1593,19 +1592,19 @@
       <c r="G8" s="10">
         <v>5</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="4">
         <v>24</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="5">
-        <v>0</v>
-      </c>
-      <c r="K8" s="6" t="s">
+      <c r="J8" s="4">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="3">
         <v>16</v>
       </c>
       <c r="M8" s="8">
@@ -1617,28 +1616,28 @@
       <c r="O8" s="8">
         <v>0</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="6">
         <v>14</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8" s="6">
         <v>80</v>
       </c>
       <c r="R8" s="13"/>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>5</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="6">
         <v>30</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>36</v>
       </c>
       <c r="F9" s="8">
@@ -1647,19 +1646,19 @@
       <c r="G9" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="4">
         <v>26</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J9" s="5">
-        <v>0</v>
-      </c>
-      <c r="K9" s="6" t="s">
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="4">
         <v>20</v>
       </c>
       <c r="M9" s="8">
@@ -1671,28 +1670,28 @@
       <c r="O9" s="8">
         <v>3.7</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="6">
         <v>16</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9" s="6">
         <v>92</v>
       </c>
       <c r="R9" s="13"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>6</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="6">
         <v>28</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>40</v>
       </c>
       <c r="F10" s="8">
@@ -1701,19 +1700,19 @@
       <c r="G10" s="9">
         <v>7</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="4">
         <v>26</v>
       </c>
-      <c r="I10" s="6" t="s">
+      <c r="I10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J10" s="5">
-        <v>0</v>
-      </c>
-      <c r="K10" s="6" t="s">
+      <c r="J10" s="4">
+        <v>0</v>
+      </c>
+      <c r="K10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="4">
         <v>16</v>
       </c>
       <c r="M10" s="8">
@@ -1725,25 +1724,25 @@
       <c r="O10" s="8">
         <v>13.97</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10" s="6">
         <v>20</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q10" s="6">
         <v>90</v>
       </c>
       <c r="R10" s="13"/>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>7</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="6">
         <v>24</v>
       </c>
       <c r="E11" s="10">
@@ -1755,19 +1754,19 @@
       <c r="G11" s="9">
         <v>8</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <v>28</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="J11" s="5">
-        <v>0</v>
-      </c>
-      <c r="K11" s="6" t="s">
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="4">
         <v>14</v>
       </c>
       <c r="M11" s="8">
@@ -1779,49 +1778,49 @@
       <c r="O11" s="8">
         <v>11.4</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11" s="6">
         <v>20</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q11" s="6">
         <v>86</v>
       </c>
       <c r="R11" s="13"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>8</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="6">
         <v>24</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="5" t="s">
         <v>44</v>
       </c>
       <c r="F12" s="8">
         <v>0</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="4">
         <v>24</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="I12" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="J12" s="5">
-        <v>0</v>
-      </c>
-      <c r="K12" s="6" t="s">
+      <c r="J12" s="4">
+        <v>0</v>
+      </c>
+      <c r="K12" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="4">
         <v>14</v>
       </c>
       <c r="M12" s="8">
@@ -1833,49 +1832,49 @@
       <c r="O12" s="8">
         <v>0.98</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12" s="6">
         <v>14</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="Q12" s="6">
         <v>76</v>
       </c>
       <c r="R12" s="13"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>9</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="6">
         <v>30</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>47</v>
       </c>
       <c r="F13" s="8">
         <v>0</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="4">
         <v>24</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="J13" s="5">
-        <v>0</v>
-      </c>
-      <c r="K13" s="6" t="s">
+      <c r="J13" s="4">
+        <v>0</v>
+      </c>
+      <c r="K13" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="4">
         <v>20</v>
       </c>
       <c r="M13" s="8">
@@ -1887,49 +1886,49 @@
       <c r="O13" s="8">
         <v>8.76</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P13" s="6">
         <v>18</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="Q13" s="6">
         <v>92</v>
       </c>
       <c r="R13" s="13"/>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>10</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="6">
         <v>24</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>53</v>
       </c>
       <c r="F14" s="8">
         <v>0</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="4">
         <v>24</v>
       </c>
-      <c r="I14" s="6" t="s">
+      <c r="I14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="J14" s="5">
-        <v>0</v>
-      </c>
-      <c r="K14" s="6" t="s">
+      <c r="J14" s="4">
+        <v>0</v>
+      </c>
+      <c r="K14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="4">
         <v>14</v>
       </c>
       <c r="M14" s="8">
@@ -1941,49 +1940,49 @@
       <c r="O14" s="8">
         <v>4</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14" s="6">
         <v>16</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q14" s="6">
         <v>78</v>
       </c>
       <c r="R14" s="13"/>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>11</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="6">
         <v>26</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>56</v>
       </c>
       <c r="F15" s="8">
         <v>0</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="4">
         <v>24</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="J15" s="5">
-        <v>0</v>
-      </c>
-      <c r="K15" s="6" t="s">
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="4">
         <v>14</v>
       </c>
       <c r="M15" s="8">
@@ -1995,25 +1994,25 @@
       <c r="O15" s="8">
         <v>5.9</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P15" s="6">
         <v>16</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q15" s="6">
         <v>80</v>
       </c>
       <c r="R15" s="13"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <v>12</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="6">
         <v>28</v>
       </c>
       <c r="E16" s="10">
@@ -2025,19 +2024,19 @@
       <c r="G16" s="10">
         <v>2.5</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="4">
         <v>24</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="J16" s="5">
-        <v>0</v>
-      </c>
-      <c r="K16" s="6" t="s">
+      <c r="J16" s="4">
+        <v>0</v>
+      </c>
+      <c r="K16" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="L16" s="5">
+      <c r="L16" s="4">
         <v>14</v>
       </c>
       <c r="M16" s="8">
@@ -2049,49 +2048,49 @@
       <c r="O16" s="8">
         <v>1.2</v>
       </c>
-      <c r="P16" s="1">
+      <c r="P16" s="6">
         <v>14</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="Q16" s="6">
         <v>80</v>
       </c>
       <c r="R16" s="13"/>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>13</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="1">
+      <c r="D17" s="6">
         <v>24</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>40</v>
       </c>
       <c r="F17" s="8">
         <v>0</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="4">
         <v>24</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J17" s="5">
-        <v>0</v>
-      </c>
-      <c r="K17" s="6" t="s">
+      <c r="J17" s="4">
+        <v>0</v>
+      </c>
+      <c r="K17" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="4">
         <v>16</v>
       </c>
       <c r="M17" s="8">
@@ -2103,25 +2102,25 @@
       <c r="O17" s="8">
         <v>0.5</v>
       </c>
-      <c r="P17" s="1">
+      <c r="P17" s="6">
         <v>14</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="Q17" s="6">
         <v>78</v>
       </c>
       <c r="R17" s="13"/>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <v>14</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>61</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="6">
         <v>24</v>
       </c>
       <c r="E18" s="7" t="s">
@@ -2133,19 +2132,19 @@
       <c r="G18" s="9">
         <v>6</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="4">
         <v>26</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="4">
         <v>0</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="4">
         <v>14</v>
       </c>
       <c r="M18" s="8">
@@ -2157,49 +2156,49 @@
       <c r="O18" s="8">
         <v>0</v>
       </c>
-      <c r="P18" s="1">
+      <c r="P18" s="6">
         <v>14</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="Q18" s="6">
         <v>78</v>
       </c>
-      <c r="R18" s="5"/>
+      <c r="R18" s="4"/>
     </row>
     <row r="19" spans="1:18">
-      <c r="A19" s="5">
+      <c r="A19" s="4">
         <v>15</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="6">
         <v>24</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>44</v>
       </c>
       <c r="F19" s="8">
         <v>0</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="4">
         <v>24</v>
       </c>
-      <c r="I19" s="6" t="s">
+      <c r="I19" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J19" s="5">
-        <v>0</v>
-      </c>
-      <c r="K19" s="6" t="s">
+      <c r="J19" s="4">
+        <v>0</v>
+      </c>
+      <c r="K19" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" s="4">
         <v>14</v>
       </c>
       <c r="M19" s="8">
@@ -2211,49 +2210,49 @@
       <c r="O19" s="8">
         <v>0</v>
       </c>
-      <c r="P19" s="1">
+      <c r="P19" s="6">
         <v>14</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="Q19" s="6">
         <v>76</v>
       </c>
-      <c r="R19" s="5"/>
+      <c r="R19" s="4"/>
     </row>
     <row r="20" spans="1:18">
-      <c r="A20" s="5">
+      <c r="A20" s="4">
         <v>16</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="6">
         <v>24</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>44</v>
       </c>
       <c r="F20" s="8">
         <v>0</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="4">
         <v>24</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J20" s="5">
-        <v>0</v>
-      </c>
-      <c r="K20" s="6" t="s">
+      <c r="J20" s="4">
+        <v>0</v>
+      </c>
+      <c r="K20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L20" s="5">
+      <c r="L20" s="4">
         <v>18</v>
       </c>
       <c r="M20" s="8">
@@ -2265,49 +2264,49 @@
       <c r="O20" s="8">
         <v>0</v>
       </c>
-      <c r="P20" s="1">
+      <c r="P20" s="6">
         <v>14</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="Q20" s="6">
         <v>80</v>
       </c>
-      <c r="R20" s="5"/>
+      <c r="R20" s="4"/>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21" s="5">
+      <c r="A21" s="4">
         <v>17</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="6">
         <v>24</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="5" t="s">
         <v>40</v>
       </c>
       <c r="F21" s="8">
         <v>0</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="4">
         <v>24</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="I21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J21" s="5">
-        <v>0</v>
-      </c>
-      <c r="K21" s="6" t="s">
+      <c r="J21" s="4">
+        <v>0</v>
+      </c>
+      <c r="K21" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L21" s="4">
         <v>14</v>
       </c>
       <c r="M21" s="8">
@@ -2319,28 +2318,28 @@
       <c r="O21" s="8">
         <v>0</v>
       </c>
-      <c r="P21" s="1">
+      <c r="P21" s="6">
         <v>14</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="Q21" s="6">
         <v>76</v>
       </c>
-      <c r="R21" s="5"/>
+      <c r="R21" s="4"/>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22" s="5">
+      <c r="A22" s="4">
         <v>18</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="6">
         <v>24</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F22" s="8">
@@ -2349,19 +2348,19 @@
       <c r="G22" s="9">
         <v>24.2</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="4">
         <v>30</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="J22" s="5">
-        <v>0</v>
-      </c>
-      <c r="K22" s="6" t="s">
+      <c r="J22" s="4">
+        <v>0</v>
+      </c>
+      <c r="K22" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="L22" s="5">
+      <c r="L22" s="4">
         <v>18</v>
       </c>
       <c r="M22" s="8">
@@ -2373,28 +2372,28 @@
       <c r="O22" s="8">
         <v>21.63</v>
       </c>
-      <c r="P22" s="1">
+      <c r="P22" s="6">
         <v>20</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="Q22" s="6">
         <v>92</v>
       </c>
-      <c r="R22" s="5"/>
+      <c r="R22" s="4"/>
     </row>
     <row r="23" spans="1:18">
-      <c r="A23" s="5">
+      <c r="A23" s="4">
         <v>19</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="6">
         <v>30</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="5" t="s">
         <v>46</v>
       </c>
       <c r="F23" s="8">
@@ -2403,19 +2402,19 @@
       <c r="G23" s="9">
         <v>9</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="4">
         <v>28</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="I23" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="J23" s="5">
-        <v>0</v>
-      </c>
-      <c r="K23" s="6" t="s">
+      <c r="J23" s="4">
+        <v>0</v>
+      </c>
+      <c r="K23" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="L23" s="5">
+      <c r="L23" s="4">
         <v>20</v>
       </c>
       <c r="M23" s="8">
@@ -2427,25 +2426,25 @@
       <c r="O23" s="8">
         <v>8.6</v>
       </c>
-      <c r="P23" s="1">
+      <c r="P23" s="6">
         <v>18</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="Q23" s="6">
         <v>96</v>
       </c>
-      <c r="R23" s="5"/>
+      <c r="R23" s="4"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="A24" s="5">
+      <c r="A24" s="4">
         <v>20</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="6">
         <v>26</v>
       </c>
       <c r="E24" s="10">
@@ -2457,19 +2456,19 @@
       <c r="G24" s="9">
         <v>7</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="4">
         <v>26</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="I24" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="J24" s="5">
-        <v>0</v>
-      </c>
-      <c r="K24" s="6" t="s">
+      <c r="J24" s="4">
+        <v>0</v>
+      </c>
+      <c r="K24" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="L24" s="5">
+      <c r="L24" s="4">
         <v>18</v>
       </c>
       <c r="M24" s="8">
@@ -2481,28 +2480,28 @@
       <c r="O24" s="8">
         <v>0.25</v>
       </c>
-      <c r="P24" s="1">
+      <c r="P24" s="6">
         <v>14</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="Q24" s="6">
         <v>84</v>
       </c>
-      <c r="R24" s="5"/>
+      <c r="R24" s="4"/>
     </row>
     <row r="25" spans="1:18">
-      <c r="A25" s="5">
+      <c r="A25" s="4">
         <v>21</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="6">
         <v>26</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="5" t="s">
         <v>75</v>
       </c>
       <c r="F25" s="8">
@@ -2511,19 +2510,19 @@
       <c r="G25" s="9">
         <v>8.5</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="4">
         <v>28</v>
       </c>
-      <c r="I25" s="6" t="s">
+      <c r="I25" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="J25" s="5">
-        <v>0</v>
-      </c>
-      <c r="K25" s="6" t="s">
+      <c r="J25" s="4">
+        <v>0</v>
+      </c>
+      <c r="K25" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="L25" s="5">
+      <c r="L25" s="4">
         <v>20</v>
       </c>
       <c r="M25" s="8">
@@ -2535,25 +2534,25 @@
       <c r="O25" s="8">
         <v>7.88</v>
       </c>
-      <c r="P25" s="1">
+      <c r="P25" s="6">
         <v>18</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="Q25" s="6">
         <v>92</v>
       </c>
-      <c r="R25" s="5"/>
+      <c r="R25" s="4"/>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="5">
+      <c r="A26" s="4">
         <v>22</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="6">
         <v>28</v>
       </c>
       <c r="E26" s="10">
@@ -2565,19 +2564,19 @@
       <c r="G26" s="11">
         <v>6.5</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="4">
         <v>26</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="I26" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="J26" s="5">
-        <v>0</v>
-      </c>
-      <c r="K26" s="6" t="s">
+      <c r="J26" s="4">
+        <v>0</v>
+      </c>
+      <c r="K26" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="L26" s="5">
+      <c r="L26" s="4">
         <v>20</v>
       </c>
       <c r="M26" s="8">
@@ -2589,13 +2588,13 @@
       <c r="O26" s="8">
         <v>0</v>
       </c>
-      <c r="P26" s="1">
+      <c r="P26" s="6">
         <v>14</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="Q26" s="6">
         <v>88</v>
       </c>
-      <c r="R26" s="5"/>
+      <c r="R26" s="4"/>
     </row>
   </sheetData>
   <sortState ref="A1:R26">
@@ -2617,134 +2616,4 @@
   <pageSetup paperSize="9" scale="62" fitToHeight="0" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:A22"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="1">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="1">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="1">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="1">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="1">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="1">
-        <v>76</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A1:A22">
-    <sortCondition ref="A1" descending="1"/>
-  </sortState>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>